--- a/runequest/checklist.xlsx
+++ b/runequest/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/runequest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74750DBB-883A-AA41-871B-497448D3EAED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFA7FAE-D3B8-FE44-BBCB-C6B5C5F461A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{36150B7F-B3AE-6D44-8C5E-EA8FC990432E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
   <si>
     <t>year</t>
   </si>
@@ -240,6 +240,51 @@
   </si>
   <si>
     <t>RuneQuest Screen</t>
+  </si>
+  <si>
+    <t>gurps_runal.jpg</t>
+  </si>
+  <si>
+    <t>gurps_runal_monster.jpg</t>
+  </si>
+  <si>
+    <t>gurps_runal_companion.jpg</t>
+  </si>
+  <si>
+    <t>gurps_runal_adv.jpg</t>
+  </si>
+  <si>
+    <t>gurps_runal_adv2.jpg</t>
+  </si>
+  <si>
+    <t>ガープス・ルナル</t>
+  </si>
+  <si>
+    <t>GURPS Runal</t>
+  </si>
+  <si>
+    <t>ガープス・ルナル・モンスター</t>
+  </si>
+  <si>
+    <t>ガープス・ルナル・コンパニオンズ</t>
+  </si>
+  <si>
+    <t>GURPS Runal Companions</t>
+  </si>
+  <si>
+    <t>GURPS Runal Monster</t>
+  </si>
+  <si>
+    <t>ガープス・ルナル・アドベンチャー 鬼面都市の冒険</t>
+  </si>
+  <si>
+    <t>GURPS Runal Adventure: Demon Plane City</t>
+  </si>
+  <si>
+    <t>ガープス・ルナル・アドベンチャー 月を追うものたち</t>
+  </si>
+  <si>
+    <t>GURPS Runal Adventure: Those Who Chase the Moon</t>
   </si>
 </sst>
 </file>
@@ -600,16 +645,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71F0D8A-2088-BC42-A708-89F45968625E}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="35.83203125" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="2" max="2" width="59.83203125" customWidth="1"/>
+    <col min="3" max="3" width="48.5" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="38.1640625" customWidth="1"/>
   </cols>
@@ -847,7 +892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -861,7 +906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>65</v>
       </c>
@@ -875,7 +920,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>67</v>
       </c>
@@ -889,7 +934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>34</v>
       </c>
@@ -903,7 +948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>44</v>
       </c>
@@ -917,7 +962,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>42</v>
       </c>
@@ -929,6 +974,88 @@
       </c>
       <c r="E22" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1992</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1994</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1993</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1995</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/runequest/checklist.xlsx
+++ b/runequest/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/runequest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFA7FAE-D3B8-FE44-BBCB-C6B5C5F461A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023198C3-9C72-3245-BC4C-9E8B1C9C6B10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{36150B7F-B3AE-6D44-8C5E-EA8FC990432E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
   <si>
     <t>year</t>
   </si>
@@ -189,15 +189,6 @@
   </si>
   <si>
     <t>Dragon Pass</t>
-  </si>
-  <si>
-    <t>ヘンダーズルインの領主</t>
-  </si>
-  <si>
-    <t>Lord of Henders Ruin</t>
-  </si>
-  <si>
-    <t>lord_of_henders_ruin.jpg</t>
   </si>
   <si>
     <t>グローランサ年代記</t>
@@ -645,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71F0D8A-2088-BC42-A708-89F45968625E}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -692,10 +683,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -790,10 +781,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -804,213 +795,216 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1988</v>
+      </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>1992</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
         <v>65</v>
       </c>
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1992</v>
+      </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>74</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>75</v>
       </c>
-      <c r="D23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>1994</v>
-      </c>
-      <c r="B24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" t="s">
-        <v>79</v>
-      </c>
       <c r="D24" t="s">
         <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1993</v>
+      </c>
       <c r="B25" t="s">
         <v>77</v>
       </c>
@@ -1021,41 +1015,24 @@
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
         <v>80</v>
       </c>
-      <c r="C26" t="s">
-        <v>81</v>
-      </c>
       <c r="D26" t="s">
         <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>1995</v>
-      </c>
-      <c r="B27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/runequest/checklist.xlsx
+++ b/runequest/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/runequest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023198C3-9C72-3245-BC4C-9E8B1C9C6B10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0F6B95-650E-1D41-B1F5-E9C585226FEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{36150B7F-B3AE-6D44-8C5E-EA8FC990432E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>year</t>
   </si>
@@ -231,51 +231,6 @@
   </si>
   <si>
     <t>RuneQuest Screen</t>
-  </si>
-  <si>
-    <t>gurps_runal.jpg</t>
-  </si>
-  <si>
-    <t>gurps_runal_monster.jpg</t>
-  </si>
-  <si>
-    <t>gurps_runal_companion.jpg</t>
-  </si>
-  <si>
-    <t>gurps_runal_adv.jpg</t>
-  </si>
-  <si>
-    <t>gurps_runal_adv2.jpg</t>
-  </si>
-  <si>
-    <t>ガープス・ルナル</t>
-  </si>
-  <si>
-    <t>GURPS Runal</t>
-  </si>
-  <si>
-    <t>ガープス・ルナル・モンスター</t>
-  </si>
-  <si>
-    <t>ガープス・ルナル・コンパニオンズ</t>
-  </si>
-  <si>
-    <t>GURPS Runal Companions</t>
-  </si>
-  <si>
-    <t>GURPS Runal Monster</t>
-  </si>
-  <si>
-    <t>ガープス・ルナル・アドベンチャー 鬼面都市の冒険</t>
-  </si>
-  <si>
-    <t>GURPS Runal Adventure: Demon Plane City</t>
-  </si>
-  <si>
-    <t>ガープス・ルナル・アドベンチャー 月を追うものたち</t>
-  </si>
-  <si>
-    <t>GURPS Runal Adventure: Those Who Chase the Moon</t>
   </si>
 </sst>
 </file>
@@ -636,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71F0D8A-2088-BC42-A708-89F45968625E}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="A22" sqref="A22:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -883,7 +838,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>62</v>
       </c>
@@ -897,7 +852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>64</v>
       </c>
@@ -911,7 +866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -925,7 +880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>44</v>
       </c>
@@ -939,7 +894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>42</v>
       </c>
@@ -951,88 +906,6 @@
       </c>
       <c r="E21" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>1992</v>
-      </c>
-      <c r="B22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>1994</v>
-      </c>
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>1993</v>
-      </c>
-      <c r="B25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>1995</v>
-      </c>
-      <c r="B26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/runequest/checklist.xlsx
+++ b/runequest/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/runequest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0F6B95-650E-1D41-B1F5-E9C585226FEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1A1DF7-80FF-8A47-999D-F583F42EEE53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{36150B7F-B3AE-6D44-8C5E-EA8FC990432E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{36150B7F-B3AE-6D44-8C5E-EA8FC990432E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
   <si>
     <t>year</t>
   </si>
@@ -231,6 +231,21 @@
   </si>
   <si>
     <t>RuneQuest Screen</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>supplement</t>
+  </si>
+  <si>
+    <t>box set</t>
+  </si>
+  <si>
+    <t>rulebook</t>
+  </si>
+  <si>
+    <t>scenario</t>
   </si>
 </sst>
 </file>
@@ -591,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71F0D8A-2088-BC42-A708-89F45968625E}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD26"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -605,7 +620,7 @@
     <col min="5" max="5" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,8 +636,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -635,8 +653,11 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>60</v>
       </c>
@@ -649,8 +670,11 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>50</v>
       </c>
@@ -663,8 +687,11 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>36</v>
       </c>
@@ -677,8 +704,11 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>28</v>
       </c>
@@ -691,8 +721,11 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>32</v>
       </c>
@@ -705,8 +738,11 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>30</v>
       </c>
@@ -719,8 +755,11 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>40</v>
       </c>
@@ -733,8 +772,14 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1994</v>
+      </c>
       <c r="B10" t="s">
         <v>52</v>
       </c>
@@ -747,8 +792,11 @@
       <c r="E10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>48</v>
       </c>
@@ -761,8 +809,11 @@
       <c r="E11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>46</v>
       </c>
@@ -775,8 +826,11 @@
       <c r="E12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1988</v>
       </c>
@@ -792,8 +846,11 @@
       <c r="E13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1992</v>
       </c>
@@ -809,8 +866,11 @@
       <c r="E14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>56</v>
       </c>
@@ -823,8 +883,11 @@
       <c r="E15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -837,8 +900,11 @@
       <c r="E16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>62</v>
       </c>
@@ -851,8 +917,11 @@
       <c r="E17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>64</v>
       </c>
@@ -865,8 +934,11 @@
       <c r="E18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -879,8 +951,14 @@
       <c r="E19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1993</v>
+      </c>
       <c r="B20" t="s">
         <v>44</v>
       </c>
@@ -893,8 +971,11 @@
       <c r="E20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>42</v>
       </c>
@@ -906,6 +987,9 @@
       </c>
       <c r="E21" t="s">
         <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/runequest/checklist.xlsx
+++ b/runequest/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/runequest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1A1DF7-80FF-8A47-999D-F583F42EEE53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146FF0F2-F285-D443-9026-F6A13C26DDAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{36150B7F-B3AE-6D44-8C5E-EA8FC990432E}"/>
   </bookViews>
@@ -609,7 +609,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -658,6 +658,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1993</v>
+      </c>
       <c r="B3" t="s">
         <v>60</v>
       </c>

--- a/runequest/checklist.xlsx
+++ b/runequest/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/runequest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146FF0F2-F285-D443-9026-F6A13C26DDAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B273AFFE-657A-B147-B0A8-B661D46D18E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{36150B7F-B3AE-6D44-8C5E-EA8FC990432E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{36150B7F-B3AE-6D44-8C5E-EA8FC990432E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -654,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -742,7 +742,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -830,7 +830,7 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -904,7 +904,7 @@
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -955,7 +955,7 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -975,7 +975,7 @@
         <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">

--- a/runequest/checklist.xlsx
+++ b/runequest/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/runequest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/runequest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B273AFFE-657A-B147-B0A8-B661D46D18E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B314A43E-DE51-D049-853E-F075D6A2F0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{36150B7F-B3AE-6D44-8C5E-EA8FC990432E}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="26880" windowHeight="16340" xr2:uid="{36150B7F-B3AE-6D44-8C5E-EA8FC990432E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -695,6 +695,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1991</v>
+      </c>
       <c r="B5" t="s">
         <v>36</v>
       </c>
@@ -746,6 +749,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1990</v>
+      </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
@@ -763,6 +769,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1991</v>
+      </c>
       <c r="B9" t="s">
         <v>40</v>
       </c>

--- a/runequest/checklist.xlsx
+++ b/runequest/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/runequest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B314A43E-DE51-D049-853E-F075D6A2F0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA0E8D5-6D6E-9D4E-A334-9155675F05AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="26880" windowHeight="16340" xr2:uid="{36150B7F-B3AE-6D44-8C5E-EA8FC990432E}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="16340" xr2:uid="{36150B7F-B3AE-6D44-8C5E-EA8FC990432E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
   <si>
     <t>year</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>scenario</t>
+  </si>
+  <si>
+    <t>product_code</t>
+  </si>
+  <si>
+    <t>8579-1</t>
   </si>
 </sst>
 </file>
@@ -606,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71F0D8A-2088-BC42-A708-89F45968625E}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B12" sqref="A1:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,7 +626,7 @@
     <col min="5" max="5" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,82 +645,106 @@
       <c r="F1" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1988</v>
+      </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="G2">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1993</v>
+        <v>1988</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="G3">
+        <v>8579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1988</v>
+      </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="G5">
+        <v>85712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1989</v>
+      </c>
       <c r="B6" t="s">
         <v>28</v>
       </c>
@@ -730,139 +760,169 @@
       <c r="F6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>8585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1989</v>
+      </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1990</v>
       </c>
       <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8">
+        <v>85711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1990</v>
+      </c>
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
         <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1991</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>8577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>85714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1990</v>
+      </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11">
+        <v>85713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1991</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>8588</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>8578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1992</v>
       </c>
@@ -882,129 +942,153 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1993</v>
+      </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1993</v>
+      </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1993</v>
+      </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="G17">
+        <v>8586</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1994</v>
+      </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1994</v>
+      </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="G19">
+        <v>8573</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G21">
+    <sortCondition ref="A2:A21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>